--- a/FP.xlsx
+++ b/FP.xlsx
@@ -5,18 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mgsafety-my.sharepoint.com/personal/adam_riman_mgsafety_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Federation Tools\Qualify Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{00F90327-C8F2-F94F-B2CF-815BF9BDE69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAF2AD51-7DF5-4211-B90F-261EB786A663}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D45DA-711C-48C6-9F92-360AF3DA883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Men" sheetId="2" r:id="rId1"/>
     <sheet name="Women" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Men!$A$1:$Q$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Women!$A$1:$Q$161</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -204,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,12 +230,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,23 +571,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q325"/>
+  <dimension ref="A1:Q161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S156" sqref="S156"/>
+    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T145" sqref="T145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -642,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -695,7 +693,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -748,7 +746,7 @@
         <v>467.5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -801,7 +799,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -854,7 +852,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -907,7 +905,7 @@
         <v>677.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -960,7 +958,7 @@
         <v>592.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>482.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1170,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1223,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1276,7 @@
         <v>612.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1329,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1382,7 @@
         <v>632.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1437,7 +1435,7 @@
         <v>567.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1488,7 @@
         <v>512.5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1541,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1594,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1647,7 @@
         <v>537.5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1700,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1753,7 @@
         <v>737.5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1808,7 +1806,7 @@
         <v>647.5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1912,7 @@
         <v>527.5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +2018,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2071,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -2126,7 +2124,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2179,7 +2177,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -2232,7 +2230,7 @@
         <v>662.5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -2285,7 +2283,7 @@
         <v>597.5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2391,7 +2389,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +2495,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -2550,7 +2548,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -2603,7 +2601,7 @@
         <v>787.5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -2656,7 +2654,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>622.5</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -2762,7 +2760,7 @@
         <v>562.5</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2815,7 +2813,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -2868,7 +2866,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -2921,7 +2919,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +2972,7 @@
         <v>702.5</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -3080,7 +3078,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -3133,7 +3131,7 @@
         <v>652.5</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -3186,7 +3184,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>502.5</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -3345,7 +3343,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3398,7 +3396,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -3451,7 +3449,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -3504,7 +3502,7 @@
         <v>747.5</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
@@ -3557,7 +3555,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3661,7 @@
         <v>512.5</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3714,7 @@
         <v>567.5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -3769,7 +3767,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -3822,7 +3820,7 @@
         <v>737.5</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -3875,7 +3873,7 @@
         <v>867.5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -3928,7 +3926,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -3981,7 +3979,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -4034,7 +4032,7 @@
         <v>617.5</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -4087,7 +4085,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -4140,7 +4138,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
@@ -4193,7 +4191,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -4246,7 +4244,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -4299,7 +4297,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
@@ -4352,7 +4350,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
@@ -4405,7 +4403,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
@@ -4458,7 +4456,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -4511,7 +4509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -4564,7 +4562,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -4617,7 +4615,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
@@ -4670,7 +4668,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -4723,7 +4721,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>10</v>
       </c>
@@ -4776,7 +4774,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
@@ -4829,7 +4827,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
@@ -4882,7 +4880,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
@@ -4935,7 +4933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -4988,7 +4986,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -5041,7 +5039,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -5147,7 +5145,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -5200,7 +5198,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
@@ -5306,7 +5304,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
@@ -5359,7 +5357,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -5412,7 +5410,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
@@ -5465,7 +5463,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>8</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -5571,7 +5569,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -5624,7 +5622,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>11</v>
       </c>
@@ -5677,7 +5675,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>12</v>
       </c>
@@ -5730,7 +5728,7 @@
         <v>202.5</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
@@ -5795,7 +5793,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -5860,7 +5858,7 @@
         <v>197.5</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
@@ -5925,7 +5923,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>8</v>
       </c>
@@ -5990,7 +5988,7 @@
         <v>252.5</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -6055,7 +6053,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>10</v>
       </c>
@@ -6120,7 +6118,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>237.5</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>12</v>
       </c>
@@ -6250,7 +6248,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>5</v>
       </c>
@@ -6303,7 +6301,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -6356,7 +6354,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
@@ -6409,7 +6407,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>8</v>
       </c>
@@ -6462,7 +6460,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -6515,7 +6513,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>10</v>
       </c>
@@ -6568,7 +6566,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -6621,7 +6619,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>12</v>
       </c>
@@ -6674,7 +6672,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
@@ -6727,7 +6725,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -6780,7 +6778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -6833,7 +6831,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
@@ -6886,7 +6884,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
@@ -6939,7 +6937,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>10</v>
       </c>
@@ -6992,7 +6990,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
@@ -7045,7 +7043,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>12</v>
       </c>
@@ -7098,7 +7096,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
@@ -7151,7 +7149,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>6</v>
       </c>
@@ -7204,7 +7202,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
@@ -7257,7 +7255,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>8</v>
       </c>
@@ -7310,7 +7308,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>9</v>
       </c>
@@ -7363,7 +7361,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>10</v>
       </c>
@@ -7416,7 +7414,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
@@ -7469,7 +7467,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -7522,7 +7520,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>5</v>
       </c>
@@ -7575,7 +7573,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -7628,7 +7626,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
@@ -7681,7 +7679,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>8</v>
       </c>
@@ -7734,7 +7732,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>9</v>
       </c>
@@ -7787,7 +7785,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>10</v>
       </c>
@@ -7840,7 +7838,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>11</v>
       </c>
@@ -7893,7 +7891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
@@ -7946,7 +7944,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>5</v>
       </c>
@@ -8011,7 +8009,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>6</v>
       </c>
@@ -8076,7 +8074,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>7</v>
       </c>
@@ -8129,7 +8127,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>8</v>
       </c>
@@ -8182,7 +8180,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>9</v>
       </c>
@@ -8235,7 +8233,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>10</v>
       </c>
@@ -8288,7 +8286,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>11</v>
       </c>
@@ -8353,7 +8351,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>12</v>
       </c>
@@ -8418,7 +8416,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
@@ -8471,7 +8469,7 @@
         <v>197.5</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
@@ -8524,7 +8522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>7</v>
       </c>
@@ -8577,7 +8575,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>8</v>
       </c>
@@ -8630,7 +8628,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -8683,7 +8681,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>10</v>
       </c>
@@ -8736,7 +8734,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>11</v>
       </c>
@@ -8789,7 +8787,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>12</v>
       </c>
@@ -8842,7 +8840,7 @@
         <v>237.5</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>5</v>
       </c>
@@ -8907,7 +8905,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -8972,7 +8970,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>7</v>
       </c>
@@ -9025,7 +9023,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>8</v>
       </c>
@@ -9078,7 +9076,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>9</v>
       </c>
@@ -9131,7 +9129,7 @@
         <v>352.5</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>10</v>
       </c>
@@ -9184,7 +9182,7 @@
         <v>307.5</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>11</v>
       </c>
@@ -9249,7 +9247,7 @@
         <v>277.5</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>12</v>
       </c>
@@ -9314,3123 +9312,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
-      <c r="M162" s="8"/>
-      <c r="N162" s="8"/>
-      <c r="O162" s="8"/>
-      <c r="P162" s="8"/>
-      <c r="Q162" s="8"/>
-    </row>
-    <row r="163" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
-      <c r="P163" s="8"/>
-      <c r="Q163" s="8"/>
-    </row>
-    <row r="164" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="8"/>
-      <c r="O164" s="8"/>
-      <c r="P164" s="8"/>
-      <c r="Q164" s="8"/>
-    </row>
-    <row r="165" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="8"/>
-      <c r="O165" s="8"/>
-      <c r="P165" s="8"/>
-      <c r="Q165" s="8"/>
-    </row>
-    <row r="166" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
-      <c r="M166" s="8"/>
-      <c r="N166" s="8"/>
-      <c r="O166" s="8"/>
-      <c r="P166" s="8"/>
-      <c r="Q166" s="8"/>
-    </row>
-    <row r="167" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="8"/>
-      <c r="M167" s="8"/>
-      <c r="N167" s="8"/>
-      <c r="O167" s="8"/>
-      <c r="P167" s="8"/>
-      <c r="Q167" s="8"/>
-    </row>
-    <row r="168" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="8"/>
-      <c r="M168" s="8"/>
-      <c r="N168" s="8"/>
-      <c r="O168" s="8"/>
-      <c r="P168" s="8"/>
-      <c r="Q168" s="8"/>
-    </row>
-    <row r="169" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
-      <c r="M169" s="8"/>
-      <c r="N169" s="8"/>
-      <c r="O169" s="8"/>
-      <c r="P169" s="8"/>
-      <c r="Q169" s="8"/>
-    </row>
-    <row r="170" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="8"/>
-      <c r="M170" s="8"/>
-      <c r="N170" s="8"/>
-      <c r="O170" s="8"/>
-      <c r="P170" s="8"/>
-      <c r="Q170" s="8"/>
-    </row>
-    <row r="171" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="8"/>
-      <c r="O171" s="8"/>
-      <c r="P171" s="8"/>
-      <c r="Q171" s="8"/>
-    </row>
-    <row r="172" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-      <c r="N172" s="8"/>
-      <c r="O172" s="8"/>
-      <c r="P172" s="8"/>
-      <c r="Q172" s="8"/>
-    </row>
-    <row r="173" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
-      <c r="K173" s="8"/>
-      <c r="L173" s="8"/>
-      <c r="M173" s="8"/>
-      <c r="N173" s="8"/>
-      <c r="O173" s="8"/>
-      <c r="P173" s="8"/>
-      <c r="Q173" s="8"/>
-    </row>
-    <row r="174" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
-      <c r="K174" s="8"/>
-      <c r="L174" s="8"/>
-      <c r="M174" s="8"/>
-      <c r="N174" s="8"/>
-      <c r="O174" s="8"/>
-      <c r="P174" s="8"/>
-      <c r="Q174" s="8"/>
-    </row>
-    <row r="175" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
-      <c r="O175" s="8"/>
-      <c r="P175" s="8"/>
-      <c r="Q175" s="8"/>
-    </row>
-    <row r="176" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
-      <c r="K176" s="8"/>
-      <c r="L176" s="8"/>
-      <c r="M176" s="8"/>
-      <c r="N176" s="8"/>
-      <c r="O176" s="8"/>
-      <c r="P176" s="8"/>
-      <c r="Q176" s="8"/>
-    </row>
-    <row r="177" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
-      <c r="L177" s="8"/>
-      <c r="M177" s="8"/>
-      <c r="N177" s="8"/>
-      <c r="O177" s="8"/>
-      <c r="P177" s="8"/>
-      <c r="Q177" s="8"/>
-    </row>
-    <row r="178" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
-      <c r="L178" s="8"/>
-      <c r="M178" s="8"/>
-      <c r="N178" s="8"/>
-      <c r="O178" s="8"/>
-      <c r="P178" s="8"/>
-      <c r="Q178" s="8"/>
-    </row>
-    <row r="179" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
-      <c r="K179" s="8"/>
-      <c r="L179" s="8"/>
-      <c r="M179" s="8"/>
-      <c r="N179" s="8"/>
-      <c r="O179" s="8"/>
-      <c r="P179" s="8"/>
-      <c r="Q179" s="8"/>
-    </row>
-    <row r="180" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
-      <c r="J180" s="8"/>
-      <c r="K180" s="8"/>
-      <c r="L180" s="8"/>
-      <c r="M180" s="8"/>
-      <c r="N180" s="8"/>
-      <c r="O180" s="8"/>
-      <c r="P180" s="8"/>
-      <c r="Q180" s="8"/>
-    </row>
-    <row r="181" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
-      <c r="L181" s="8"/>
-      <c r="M181" s="8"/>
-      <c r="N181" s="8"/>
-      <c r="O181" s="8"/>
-      <c r="P181" s="8"/>
-      <c r="Q181" s="8"/>
-    </row>
-    <row r="182" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="8"/>
-      <c r="M182" s="8"/>
-      <c r="N182" s="8"/>
-      <c r="O182" s="8"/>
-      <c r="P182" s="8"/>
-      <c r="Q182" s="8"/>
-    </row>
-    <row r="183" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
-      <c r="K183" s="8"/>
-      <c r="L183" s="8"/>
-      <c r="M183" s="8"/>
-      <c r="N183" s="8"/>
-      <c r="O183" s="8"/>
-      <c r="P183" s="8"/>
-      <c r="Q183" s="8"/>
-    </row>
-    <row r="184" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
-      <c r="L184" s="8"/>
-      <c r="M184" s="8"/>
-      <c r="N184" s="8"/>
-      <c r="O184" s="8"/>
-      <c r="P184" s="8"/>
-      <c r="Q184" s="8"/>
-    </row>
-    <row r="185" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
-      <c r="L185" s="8"/>
-      <c r="M185" s="8"/>
-      <c r="N185" s="8"/>
-      <c r="O185" s="8"/>
-      <c r="P185" s="8"/>
-      <c r="Q185" s="8"/>
-    </row>
-    <row r="186" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
-      <c r="K186" s="8"/>
-      <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="8"/>
-      <c r="O186" s="8"/>
-      <c r="P186" s="8"/>
-      <c r="Q186" s="8"/>
-    </row>
-    <row r="187" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
-      <c r="K187" s="8"/>
-      <c r="L187" s="8"/>
-      <c r="M187" s="8"/>
-      <c r="N187" s="8"/>
-      <c r="O187" s="8"/>
-      <c r="P187" s="8"/>
-      <c r="Q187" s="8"/>
-    </row>
-    <row r="188" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
-      <c r="K188" s="8"/>
-      <c r="L188" s="8"/>
-      <c r="M188" s="8"/>
-      <c r="N188" s="8"/>
-      <c r="O188" s="8"/>
-      <c r="P188" s="8"/>
-      <c r="Q188" s="8"/>
-    </row>
-    <row r="189" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="8"/>
-      <c r="M189" s="8"/>
-      <c r="N189" s="8"/>
-      <c r="O189" s="8"/>
-      <c r="P189" s="8"/>
-      <c r="Q189" s="8"/>
-    </row>
-    <row r="190" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
-      <c r="K190" s="8"/>
-      <c r="L190" s="8"/>
-      <c r="M190" s="8"/>
-      <c r="N190" s="8"/>
-      <c r="O190" s="8"/>
-      <c r="P190" s="8"/>
-      <c r="Q190" s="8"/>
-    </row>
-    <row r="191" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
-      <c r="K191" s="8"/>
-      <c r="L191" s="8"/>
-      <c r="M191" s="8"/>
-      <c r="N191" s="8"/>
-      <c r="O191" s="8"/>
-      <c r="P191" s="8"/>
-      <c r="Q191" s="8"/>
-    </row>
-    <row r="192" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
-      <c r="K192" s="8"/>
-      <c r="L192" s="8"/>
-      <c r="M192" s="8"/>
-      <c r="N192" s="8"/>
-      <c r="O192" s="8"/>
-      <c r="P192" s="8"/>
-      <c r="Q192" s="8"/>
-    </row>
-    <row r="193" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
-      <c r="K193" s="8"/>
-      <c r="L193" s="8"/>
-      <c r="M193" s="8"/>
-      <c r="N193" s="8"/>
-      <c r="O193" s="8"/>
-      <c r="P193" s="8"/>
-      <c r="Q193" s="8"/>
-    </row>
-    <row r="194" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="8"/>
-      <c r="M194" s="8"/>
-      <c r="N194" s="8"/>
-      <c r="O194" s="8"/>
-      <c r="P194" s="8"/>
-      <c r="Q194" s="8"/>
-    </row>
-    <row r="195" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="8"/>
-      <c r="J195" s="8"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="8"/>
-      <c r="M195" s="8"/>
-      <c r="N195" s="8"/>
-      <c r="O195" s="8"/>
-      <c r="P195" s="8"/>
-      <c r="Q195" s="8"/>
-    </row>
-    <row r="196" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
-      <c r="M196" s="8"/>
-      <c r="N196" s="8"/>
-      <c r="O196" s="8"/>
-      <c r="P196" s="8"/>
-      <c r="Q196" s="8"/>
-    </row>
-    <row r="197" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="8"/>
-      <c r="K197" s="8"/>
-      <c r="L197" s="8"/>
-      <c r="M197" s="8"/>
-      <c r="N197" s="8"/>
-      <c r="O197" s="8"/>
-      <c r="P197" s="8"/>
-      <c r="Q197" s="8"/>
-    </row>
-    <row r="198" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
-      <c r="K198" s="8"/>
-      <c r="L198" s="8"/>
-      <c r="M198" s="8"/>
-      <c r="N198" s="8"/>
-      <c r="O198" s="8"/>
-      <c r="P198" s="8"/>
-      <c r="Q198" s="8"/>
-    </row>
-    <row r="199" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="8"/>
-      <c r="L199" s="8"/>
-      <c r="M199" s="8"/>
-      <c r="N199" s="8"/>
-      <c r="O199" s="8"/>
-      <c r="P199" s="8"/>
-      <c r="Q199" s="8"/>
-    </row>
-    <row r="200" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
-      <c r="J200" s="8"/>
-      <c r="K200" s="8"/>
-      <c r="L200" s="8"/>
-      <c r="M200" s="8"/>
-      <c r="N200" s="8"/>
-      <c r="O200" s="8"/>
-      <c r="P200" s="8"/>
-      <c r="Q200" s="8"/>
-    </row>
-    <row r="201" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
-      <c r="J201" s="8"/>
-      <c r="K201" s="8"/>
-      <c r="L201" s="8"/>
-      <c r="M201" s="8"/>
-      <c r="N201" s="8"/>
-      <c r="O201" s="8"/>
-      <c r="P201" s="8"/>
-      <c r="Q201" s="8"/>
-    </row>
-    <row r="202" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8"/>
-      <c r="J202" s="8"/>
-      <c r="K202" s="8"/>
-      <c r="L202" s="8"/>
-      <c r="M202" s="8"/>
-      <c r="N202" s="8"/>
-      <c r="O202" s="8"/>
-      <c r="P202" s="8"/>
-      <c r="Q202" s="8"/>
-    </row>
-    <row r="203" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
-      <c r="J203" s="8"/>
-      <c r="K203" s="8"/>
-      <c r="L203" s="8"/>
-      <c r="M203" s="8"/>
-      <c r="N203" s="8"/>
-      <c r="O203" s="8"/>
-      <c r="P203" s="8"/>
-      <c r="Q203" s="8"/>
-    </row>
-    <row r="204" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
-      <c r="J204" s="8"/>
-      <c r="K204" s="8"/>
-      <c r="L204" s="8"/>
-      <c r="M204" s="8"/>
-      <c r="N204" s="8"/>
-      <c r="O204" s="8"/>
-      <c r="P204" s="8"/>
-      <c r="Q204" s="8"/>
-    </row>
-    <row r="205" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="8"/>
-      <c r="M205" s="8"/>
-      <c r="N205" s="8"/>
-      <c r="O205" s="8"/>
-      <c r="P205" s="8"/>
-      <c r="Q205" s="8"/>
-    </row>
-    <row r="206" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
-      <c r="K206" s="8"/>
-      <c r="L206" s="8"/>
-      <c r="M206" s="8"/>
-      <c r="N206" s="8"/>
-      <c r="O206" s="8"/>
-      <c r="P206" s="8"/>
-      <c r="Q206" s="8"/>
-    </row>
-    <row r="207" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
-      <c r="J207" s="8"/>
-      <c r="K207" s="8"/>
-      <c r="L207" s="8"/>
-      <c r="M207" s="8"/>
-      <c r="N207" s="8"/>
-      <c r="O207" s="8"/>
-      <c r="P207" s="8"/>
-      <c r="Q207" s="8"/>
-    </row>
-    <row r="208" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
-      <c r="K208" s="8"/>
-      <c r="L208" s="8"/>
-      <c r="M208" s="8"/>
-      <c r="N208" s="8"/>
-      <c r="O208" s="8"/>
-      <c r="P208" s="8"/>
-      <c r="Q208" s="8"/>
-    </row>
-    <row r="209" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
-      <c r="J209" s="8"/>
-      <c r="K209" s="8"/>
-      <c r="L209" s="8"/>
-      <c r="M209" s="8"/>
-      <c r="N209" s="8"/>
-      <c r="O209" s="8"/>
-      <c r="P209" s="8"/>
-      <c r="Q209" s="8"/>
-    </row>
-    <row r="210" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
-      <c r="K210" s="8"/>
-      <c r="L210" s="8"/>
-      <c r="M210" s="8"/>
-      <c r="N210" s="8"/>
-      <c r="O210" s="8"/>
-      <c r="P210" s="8"/>
-      <c r="Q210" s="8"/>
-    </row>
-    <row r="211" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
-      <c r="K211" s="8"/>
-      <c r="L211" s="8"/>
-      <c r="M211" s="8"/>
-      <c r="N211" s="8"/>
-      <c r="O211" s="8"/>
-      <c r="P211" s="8"/>
-      <c r="Q211" s="8"/>
-    </row>
-    <row r="212" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8"/>
-      <c r="J212" s="8"/>
-      <c r="K212" s="8"/>
-      <c r="L212" s="8"/>
-      <c r="M212" s="8"/>
-      <c r="N212" s="8"/>
-      <c r="O212" s="8"/>
-      <c r="P212" s="8"/>
-      <c r="Q212" s="8"/>
-    </row>
-    <row r="213" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
-      <c r="J213" s="8"/>
-      <c r="K213" s="8"/>
-      <c r="L213" s="8"/>
-      <c r="M213" s="8"/>
-      <c r="N213" s="8"/>
-      <c r="O213" s="8"/>
-      <c r="P213" s="8"/>
-      <c r="Q213" s="8"/>
-    </row>
-    <row r="214" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
-      <c r="J214" s="8"/>
-      <c r="K214" s="8"/>
-      <c r="L214" s="8"/>
-      <c r="M214" s="8"/>
-      <c r="N214" s="8"/>
-      <c r="O214" s="8"/>
-      <c r="P214" s="8"/>
-      <c r="Q214" s="8"/>
-    </row>
-    <row r="215" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
-      <c r="K215" s="8"/>
-      <c r="L215" s="8"/>
-      <c r="M215" s="8"/>
-      <c r="N215" s="8"/>
-      <c r="O215" s="8"/>
-      <c r="P215" s="8"/>
-      <c r="Q215" s="8"/>
-    </row>
-    <row r="216" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
-      <c r="K216" s="8"/>
-      <c r="L216" s="8"/>
-      <c r="M216" s="8"/>
-      <c r="N216" s="8"/>
-      <c r="O216" s="8"/>
-      <c r="P216" s="8"/>
-      <c r="Q216" s="8"/>
-    </row>
-    <row r="217" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
-      <c r="J217" s="8"/>
-      <c r="K217" s="8"/>
-      <c r="L217" s="8"/>
-      <c r="M217" s="8"/>
-      <c r="N217" s="8"/>
-      <c r="O217" s="8"/>
-      <c r="P217" s="8"/>
-      <c r="Q217" s="8"/>
-    </row>
-    <row r="218" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="8"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
-      <c r="J218" s="8"/>
-      <c r="K218" s="8"/>
-      <c r="L218" s="8"/>
-      <c r="M218" s="8"/>
-      <c r="N218" s="8"/>
-      <c r="O218" s="8"/>
-      <c r="P218" s="8"/>
-      <c r="Q218" s="8"/>
-    </row>
-    <row r="219" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
-      <c r="J219" s="8"/>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="8"/>
-      <c r="N219" s="8"/>
-      <c r="O219" s="8"/>
-      <c r="P219" s="8"/>
-      <c r="Q219" s="8"/>
-    </row>
-    <row r="220" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
-      <c r="J220" s="8"/>
-      <c r="K220" s="8"/>
-      <c r="L220" s="8"/>
-      <c r="M220" s="8"/>
-      <c r="N220" s="8"/>
-      <c r="O220" s="8"/>
-      <c r="P220" s="8"/>
-      <c r="Q220" s="8"/>
-    </row>
-    <row r="221" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="8"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
-      <c r="J221" s="8"/>
-      <c r="K221" s="8"/>
-      <c r="L221" s="8"/>
-      <c r="M221" s="8"/>
-      <c r="N221" s="8"/>
-      <c r="O221" s="8"/>
-      <c r="P221" s="8"/>
-      <c r="Q221" s="8"/>
-    </row>
-    <row r="222" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
-      <c r="J222" s="8"/>
-      <c r="K222" s="8"/>
-      <c r="L222" s="8"/>
-      <c r="M222" s="8"/>
-      <c r="N222" s="8"/>
-      <c r="O222" s="8"/>
-      <c r="P222" s="8"/>
-      <c r="Q222" s="8"/>
-    </row>
-    <row r="223" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8"/>
-      <c r="J223" s="8"/>
-      <c r="K223" s="8"/>
-      <c r="L223" s="8"/>
-      <c r="M223" s="8"/>
-      <c r="N223" s="8"/>
-      <c r="O223" s="8"/>
-      <c r="P223" s="8"/>
-      <c r="Q223" s="8"/>
-    </row>
-    <row r="224" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="8"/>
-      <c r="J224" s="8"/>
-      <c r="K224" s="8"/>
-      <c r="L224" s="8"/>
-      <c r="M224" s="8"/>
-      <c r="N224" s="8"/>
-      <c r="O224" s="8"/>
-      <c r="P224" s="8"/>
-      <c r="Q224" s="8"/>
-    </row>
-    <row r="225" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="8"/>
-      <c r="J225" s="8"/>
-      <c r="K225" s="8"/>
-      <c r="L225" s="8"/>
-      <c r="M225" s="8"/>
-      <c r="N225" s="8"/>
-      <c r="O225" s="8"/>
-      <c r="P225" s="8"/>
-      <c r="Q225" s="8"/>
-    </row>
-    <row r="226" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="8"/>
-      <c r="J226" s="8"/>
-      <c r="K226" s="8"/>
-      <c r="L226" s="8"/>
-      <c r="M226" s="8"/>
-      <c r="N226" s="8"/>
-      <c r="O226" s="8"/>
-      <c r="P226" s="8"/>
-      <c r="Q226" s="8"/>
-    </row>
-    <row r="227" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
-      <c r="J227" s="8"/>
-      <c r="K227" s="8"/>
-      <c r="L227" s="8"/>
-      <c r="M227" s="8"/>
-      <c r="N227" s="8"/>
-      <c r="O227" s="8"/>
-      <c r="P227" s="8"/>
-      <c r="Q227" s="8"/>
-    </row>
-    <row r="228" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
-      <c r="J228" s="8"/>
-      <c r="K228" s="8"/>
-      <c r="L228" s="8"/>
-      <c r="M228" s="8"/>
-      <c r="N228" s="8"/>
-      <c r="O228" s="8"/>
-      <c r="P228" s="8"/>
-      <c r="Q228" s="8"/>
-    </row>
-    <row r="229" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8"/>
-      <c r="J229" s="8"/>
-      <c r="K229" s="8"/>
-      <c r="L229" s="8"/>
-      <c r="M229" s="8"/>
-      <c r="N229" s="8"/>
-      <c r="O229" s="8"/>
-      <c r="P229" s="8"/>
-      <c r="Q229" s="8"/>
-    </row>
-    <row r="230" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="8"/>
-      <c r="J230" s="8"/>
-      <c r="K230" s="8"/>
-      <c r="L230" s="8"/>
-      <c r="M230" s="8"/>
-      <c r="N230" s="8"/>
-      <c r="O230" s="8"/>
-      <c r="P230" s="8"/>
-      <c r="Q230" s="8"/>
-    </row>
-    <row r="231" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="8"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="8"/>
-      <c r="J231" s="8"/>
-      <c r="K231" s="8"/>
-      <c r="L231" s="8"/>
-      <c r="M231" s="8"/>
-      <c r="N231" s="8"/>
-      <c r="O231" s="8"/>
-      <c r="P231" s="8"/>
-      <c r="Q231" s="8"/>
-    </row>
-    <row r="232" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
-      <c r="J232" s="8"/>
-      <c r="K232" s="8"/>
-      <c r="L232" s="8"/>
-      <c r="M232" s="8"/>
-      <c r="N232" s="8"/>
-      <c r="O232" s="8"/>
-      <c r="P232" s="8"/>
-      <c r="Q232" s="8"/>
-    </row>
-    <row r="233" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
-      <c r="K233" s="8"/>
-      <c r="L233" s="8"/>
-      <c r="M233" s="8"/>
-      <c r="N233" s="8"/>
-      <c r="O233" s="8"/>
-      <c r="P233" s="8"/>
-      <c r="Q233" s="8"/>
-    </row>
-    <row r="234" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="8"/>
-      <c r="J234" s="8"/>
-      <c r="K234" s="8"/>
-      <c r="L234" s="8"/>
-      <c r="M234" s="8"/>
-      <c r="N234" s="8"/>
-      <c r="O234" s="8"/>
-      <c r="P234" s="8"/>
-      <c r="Q234" s="8"/>
-    </row>
-    <row r="235" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="8"/>
-      <c r="J235" s="8"/>
-      <c r="K235" s="8"/>
-      <c r="L235" s="8"/>
-      <c r="M235" s="8"/>
-      <c r="N235" s="8"/>
-      <c r="O235" s="8"/>
-      <c r="P235" s="8"/>
-      <c r="Q235" s="8"/>
-    </row>
-    <row r="236" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8"/>
-      <c r="J236" s="8"/>
-      <c r="K236" s="8"/>
-      <c r="L236" s="8"/>
-      <c r="M236" s="8"/>
-      <c r="N236" s="8"/>
-      <c r="O236" s="8"/>
-      <c r="P236" s="8"/>
-      <c r="Q236" s="8"/>
-    </row>
-    <row r="237" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
-      <c r="K237" s="8"/>
-      <c r="L237" s="8"/>
-      <c r="M237" s="8"/>
-      <c r="N237" s="8"/>
-      <c r="O237" s="8"/>
-      <c r="P237" s="8"/>
-      <c r="Q237" s="8"/>
-    </row>
-    <row r="238" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
-      <c r="J238" s="8"/>
-      <c r="K238" s="8"/>
-      <c r="L238" s="8"/>
-      <c r="M238" s="8"/>
-      <c r="N238" s="8"/>
-      <c r="O238" s="8"/>
-      <c r="P238" s="8"/>
-      <c r="Q238" s="8"/>
-    </row>
-    <row r="239" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="8"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="8"/>
-      <c r="J239" s="8"/>
-      <c r="K239" s="8"/>
-      <c r="L239" s="8"/>
-      <c r="M239" s="8"/>
-      <c r="N239" s="8"/>
-      <c r="O239" s="8"/>
-      <c r="P239" s="8"/>
-      <c r="Q239" s="8"/>
-    </row>
-    <row r="240" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="8"/>
-      <c r="J240" s="8"/>
-      <c r="K240" s="8"/>
-      <c r="L240" s="8"/>
-      <c r="M240" s="8"/>
-      <c r="N240" s="8"/>
-      <c r="O240" s="8"/>
-      <c r="P240" s="8"/>
-      <c r="Q240" s="8"/>
-    </row>
-    <row r="241" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-      <c r="G241" s="8"/>
-      <c r="H241" s="8"/>
-      <c r="I241" s="8"/>
-      <c r="J241" s="8"/>
-      <c r="K241" s="8"/>
-      <c r="L241" s="8"/>
-      <c r="M241" s="8"/>
-      <c r="N241" s="8"/>
-      <c r="O241" s="8"/>
-      <c r="P241" s="8"/>
-      <c r="Q241" s="8"/>
-    </row>
-    <row r="242" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
-      <c r="I242" s="8"/>
-      <c r="J242" s="8"/>
-      <c r="K242" s="8"/>
-      <c r="L242" s="8"/>
-      <c r="M242" s="8"/>
-      <c r="N242" s="8"/>
-      <c r="O242" s="8"/>
-      <c r="P242" s="8"/>
-      <c r="Q242" s="8"/>
-    </row>
-    <row r="243" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
-      <c r="H243" s="8"/>
-      <c r="I243" s="8"/>
-      <c r="J243" s="8"/>
-      <c r="K243" s="8"/>
-      <c r="L243" s="8"/>
-      <c r="M243" s="8"/>
-      <c r="N243" s="8"/>
-      <c r="O243" s="8"/>
-      <c r="P243" s="8"/>
-      <c r="Q243" s="8"/>
-    </row>
-    <row r="244" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="8"/>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="8"/>
-      <c r="I244" s="8"/>
-      <c r="J244" s="8"/>
-      <c r="K244" s="8"/>
-      <c r="L244" s="8"/>
-      <c r="M244" s="8"/>
-      <c r="N244" s="8"/>
-      <c r="O244" s="8"/>
-      <c r="P244" s="8"/>
-      <c r="Q244" s="8"/>
-    </row>
-    <row r="245" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
-      <c r="H245" s="8"/>
-      <c r="I245" s="8"/>
-      <c r="J245" s="8"/>
-      <c r="K245" s="8"/>
-      <c r="L245" s="8"/>
-      <c r="M245" s="8"/>
-      <c r="N245" s="8"/>
-      <c r="O245" s="8"/>
-      <c r="P245" s="8"/>
-      <c r="Q245" s="8"/>
-    </row>
-    <row r="246" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
-      <c r="H246" s="8"/>
-      <c r="I246" s="8"/>
-      <c r="J246" s="8"/>
-      <c r="K246" s="8"/>
-      <c r="L246" s="8"/>
-      <c r="M246" s="8"/>
-      <c r="N246" s="8"/>
-      <c r="O246" s="8"/>
-      <c r="P246" s="8"/>
-      <c r="Q246" s="8"/>
-    </row>
-    <row r="247" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
-      <c r="H247" s="8"/>
-      <c r="I247" s="8"/>
-      <c r="J247" s="8"/>
-      <c r="K247" s="8"/>
-      <c r="L247" s="8"/>
-      <c r="M247" s="8"/>
-      <c r="N247" s="8"/>
-      <c r="O247" s="8"/>
-      <c r="P247" s="8"/>
-      <c r="Q247" s="8"/>
-    </row>
-    <row r="248" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
-      <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
-      <c r="H248" s="8"/>
-      <c r="I248" s="8"/>
-      <c r="J248" s="8"/>
-      <c r="K248" s="8"/>
-      <c r="L248" s="8"/>
-      <c r="M248" s="8"/>
-      <c r="N248" s="8"/>
-      <c r="O248" s="8"/>
-      <c r="P248" s="8"/>
-      <c r="Q248" s="8"/>
-    </row>
-    <row r="249" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="8"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
-      <c r="H249" s="8"/>
-      <c r="I249" s="8"/>
-      <c r="J249" s="8"/>
-      <c r="K249" s="8"/>
-      <c r="L249" s="8"/>
-      <c r="M249" s="8"/>
-      <c r="N249" s="8"/>
-      <c r="O249" s="8"/>
-      <c r="P249" s="8"/>
-      <c r="Q249" s="8"/>
-    </row>
-    <row r="250" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="8"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
-      <c r="H250" s="8"/>
-      <c r="I250" s="8"/>
-      <c r="J250" s="8"/>
-      <c r="K250" s="8"/>
-      <c r="L250" s="8"/>
-      <c r="M250" s="8"/>
-      <c r="N250" s="8"/>
-      <c r="O250" s="8"/>
-      <c r="P250" s="8"/>
-      <c r="Q250" s="8"/>
-    </row>
-    <row r="251" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
-      <c r="H251" s="8"/>
-      <c r="I251" s="8"/>
-      <c r="J251" s="8"/>
-      <c r="K251" s="8"/>
-      <c r="L251" s="8"/>
-      <c r="M251" s="8"/>
-      <c r="N251" s="8"/>
-      <c r="O251" s="8"/>
-      <c r="P251" s="8"/>
-      <c r="Q251" s="8"/>
-    </row>
-    <row r="252" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-      <c r="G252" s="8"/>
-      <c r="H252" s="8"/>
-      <c r="I252" s="8"/>
-      <c r="J252" s="8"/>
-      <c r="K252" s="8"/>
-      <c r="L252" s="8"/>
-      <c r="M252" s="8"/>
-      <c r="N252" s="8"/>
-      <c r="O252" s="8"/>
-      <c r="P252" s="8"/>
-      <c r="Q252" s="8"/>
-    </row>
-    <row r="253" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
-      <c r="H253" s="8"/>
-      <c r="I253" s="8"/>
-      <c r="J253" s="8"/>
-      <c r="K253" s="8"/>
-      <c r="L253" s="8"/>
-      <c r="M253" s="8"/>
-      <c r="N253" s="8"/>
-      <c r="O253" s="8"/>
-      <c r="P253" s="8"/>
-      <c r="Q253" s="8"/>
-    </row>
-    <row r="254" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="8"/>
-      <c r="I254" s="8"/>
-      <c r="J254" s="8"/>
-      <c r="K254" s="8"/>
-      <c r="L254" s="8"/>
-      <c r="M254" s="8"/>
-      <c r="N254" s="8"/>
-      <c r="O254" s="8"/>
-      <c r="P254" s="8"/>
-      <c r="Q254" s="8"/>
-    </row>
-    <row r="255" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="8"/>
-      <c r="I255" s="8"/>
-      <c r="J255" s="8"/>
-      <c r="K255" s="8"/>
-      <c r="L255" s="8"/>
-      <c r="M255" s="8"/>
-      <c r="N255" s="8"/>
-      <c r="O255" s="8"/>
-      <c r="P255" s="8"/>
-      <c r="Q255" s="8"/>
-    </row>
-    <row r="256" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
-      <c r="C256" s="8"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
-      <c r="H256" s="8"/>
-      <c r="I256" s="8"/>
-      <c r="J256" s="8"/>
-      <c r="K256" s="8"/>
-      <c r="L256" s="8"/>
-      <c r="M256" s="8"/>
-      <c r="N256" s="8"/>
-      <c r="O256" s="8"/>
-      <c r="P256" s="8"/>
-      <c r="Q256" s="8"/>
-    </row>
-    <row r="257" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="8"/>
-      <c r="B257" s="8"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
-      <c r="F257" s="8"/>
-      <c r="G257" s="8"/>
-      <c r="H257" s="8"/>
-      <c r="I257" s="8"/>
-      <c r="J257" s="8"/>
-      <c r="K257" s="8"/>
-      <c r="L257" s="8"/>
-      <c r="M257" s="8"/>
-      <c r="N257" s="8"/>
-      <c r="O257" s="8"/>
-      <c r="P257" s="8"/>
-      <c r="Q257" s="8"/>
-    </row>
-    <row r="258" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
-      <c r="H258" s="8"/>
-      <c r="I258" s="8"/>
-      <c r="J258" s="8"/>
-      <c r="K258" s="8"/>
-      <c r="L258" s="8"/>
-      <c r="M258" s="8"/>
-      <c r="N258" s="8"/>
-      <c r="O258" s="8"/>
-      <c r="P258" s="8"/>
-      <c r="Q258" s="8"/>
-    </row>
-    <row r="259" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
-      <c r="H259" s="8"/>
-      <c r="I259" s="8"/>
-      <c r="J259" s="8"/>
-      <c r="K259" s="8"/>
-      <c r="L259" s="8"/>
-      <c r="M259" s="8"/>
-      <c r="N259" s="8"/>
-      <c r="O259" s="8"/>
-      <c r="P259" s="8"/>
-      <c r="Q259" s="8"/>
-    </row>
-    <row r="260" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="8"/>
-      <c r="B260" s="8"/>
-      <c r="C260" s="8"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
-      <c r="H260" s="8"/>
-      <c r="I260" s="8"/>
-      <c r="J260" s="8"/>
-      <c r="K260" s="8"/>
-      <c r="L260" s="8"/>
-      <c r="M260" s="8"/>
-      <c r="N260" s="8"/>
-      <c r="O260" s="8"/>
-      <c r="P260" s="8"/>
-      <c r="Q260" s="8"/>
-    </row>
-    <row r="261" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-      <c r="G261" s="8"/>
-      <c r="H261" s="8"/>
-      <c r="I261" s="8"/>
-      <c r="J261" s="8"/>
-      <c r="K261" s="8"/>
-      <c r="L261" s="8"/>
-      <c r="M261" s="8"/>
-      <c r="N261" s="8"/>
-      <c r="O261" s="8"/>
-      <c r="P261" s="8"/>
-      <c r="Q261" s="8"/>
-    </row>
-    <row r="262" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="8"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-      <c r="G262" s="8"/>
-      <c r="H262" s="8"/>
-      <c r="I262" s="8"/>
-      <c r="J262" s="8"/>
-      <c r="K262" s="8"/>
-      <c r="L262" s="8"/>
-      <c r="M262" s="8"/>
-      <c r="N262" s="8"/>
-      <c r="O262" s="8"/>
-      <c r="P262" s="8"/>
-      <c r="Q262" s="8"/>
-    </row>
-    <row r="263" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="8"/>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-      <c r="H263" s="8"/>
-      <c r="I263" s="8"/>
-      <c r="J263" s="8"/>
-      <c r="K263" s="8"/>
-      <c r="L263" s="8"/>
-      <c r="M263" s="8"/>
-      <c r="N263" s="8"/>
-      <c r="O263" s="8"/>
-      <c r="P263" s="8"/>
-      <c r="Q263" s="8"/>
-    </row>
-    <row r="264" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
-      <c r="G264" s="8"/>
-      <c r="H264" s="8"/>
-      <c r="I264" s="8"/>
-      <c r="J264" s="8"/>
-      <c r="K264" s="8"/>
-      <c r="L264" s="8"/>
-      <c r="M264" s="8"/>
-      <c r="N264" s="8"/>
-      <c r="O264" s="8"/>
-      <c r="P264" s="8"/>
-      <c r="Q264" s="8"/>
-    </row>
-    <row r="265" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="8"/>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
-      <c r="H265" s="8"/>
-      <c r="I265" s="8"/>
-      <c r="J265" s="8"/>
-      <c r="K265" s="8"/>
-      <c r="L265" s="8"/>
-      <c r="M265" s="8"/>
-      <c r="N265" s="8"/>
-      <c r="O265" s="8"/>
-      <c r="P265" s="8"/>
-      <c r="Q265" s="8"/>
-    </row>
-    <row r="266" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
-      <c r="H266" s="8"/>
-      <c r="I266" s="8"/>
-      <c r="J266" s="8"/>
-      <c r="K266" s="8"/>
-      <c r="L266" s="8"/>
-      <c r="M266" s="8"/>
-      <c r="N266" s="8"/>
-      <c r="O266" s="8"/>
-      <c r="P266" s="8"/>
-      <c r="Q266" s="8"/>
-    </row>
-    <row r="267" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="8"/>
-      <c r="B267" s="8"/>
-      <c r="C267" s="8"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
-      <c r="H267" s="8"/>
-      <c r="I267" s="8"/>
-      <c r="J267" s="8"/>
-      <c r="K267" s="8"/>
-      <c r="L267" s="8"/>
-      <c r="M267" s="8"/>
-      <c r="N267" s="8"/>
-      <c r="O267" s="8"/>
-      <c r="P267" s="8"/>
-      <c r="Q267" s="8"/>
-    </row>
-    <row r="268" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
-      <c r="H268" s="8"/>
-      <c r="I268" s="8"/>
-      <c r="J268" s="8"/>
-      <c r="K268" s="8"/>
-      <c r="L268" s="8"/>
-      <c r="M268" s="8"/>
-      <c r="N268" s="8"/>
-      <c r="O268" s="8"/>
-      <c r="P268" s="8"/>
-      <c r="Q268" s="8"/>
-    </row>
-    <row r="269" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="8"/>
-      <c r="B269" s="8"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="8"/>
-      <c r="H269" s="8"/>
-      <c r="I269" s="8"/>
-      <c r="J269" s="8"/>
-      <c r="K269" s="8"/>
-      <c r="L269" s="8"/>
-      <c r="M269" s="8"/>
-      <c r="N269" s="8"/>
-      <c r="O269" s="8"/>
-      <c r="P269" s="8"/>
-      <c r="Q269" s="8"/>
-    </row>
-    <row r="270" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
-      <c r="H270" s="8"/>
-      <c r="I270" s="8"/>
-      <c r="J270" s="8"/>
-      <c r="K270" s="8"/>
-      <c r="L270" s="8"/>
-      <c r="M270" s="8"/>
-      <c r="N270" s="8"/>
-      <c r="O270" s="8"/>
-      <c r="P270" s="8"/>
-      <c r="Q270" s="8"/>
-    </row>
-    <row r="271" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="8"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
-      <c r="H271" s="8"/>
-      <c r="I271" s="8"/>
-      <c r="J271" s="8"/>
-      <c r="K271" s="8"/>
-      <c r="L271" s="8"/>
-      <c r="M271" s="8"/>
-      <c r="N271" s="8"/>
-      <c r="O271" s="8"/>
-      <c r="P271" s="8"/>
-      <c r="Q271" s="8"/>
-    </row>
-    <row r="272" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
-      <c r="H272" s="8"/>
-      <c r="I272" s="8"/>
-      <c r="J272" s="8"/>
-      <c r="K272" s="8"/>
-      <c r="L272" s="8"/>
-      <c r="M272" s="8"/>
-      <c r="N272" s="8"/>
-      <c r="O272" s="8"/>
-      <c r="P272" s="8"/>
-      <c r="Q272" s="8"/>
-    </row>
-    <row r="273" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="8"/>
-      <c r="B273" s="8"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
-      <c r="H273" s="8"/>
-      <c r="I273" s="8"/>
-      <c r="J273" s="8"/>
-      <c r="K273" s="8"/>
-      <c r="L273" s="8"/>
-      <c r="M273" s="8"/>
-      <c r="N273" s="8"/>
-      <c r="O273" s="8"/>
-      <c r="P273" s="8"/>
-      <c r="Q273" s="8"/>
-    </row>
-    <row r="274" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
-      <c r="H274" s="8"/>
-      <c r="I274" s="8"/>
-      <c r="J274" s="8"/>
-      <c r="K274" s="8"/>
-      <c r="L274" s="8"/>
-      <c r="M274" s="8"/>
-      <c r="N274" s="8"/>
-      <c r="O274" s="8"/>
-      <c r="P274" s="8"/>
-      <c r="Q274" s="8"/>
-    </row>
-    <row r="275" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="8"/>
-      <c r="H275" s="8"/>
-      <c r="I275" s="8"/>
-      <c r="J275" s="8"/>
-      <c r="K275" s="8"/>
-      <c r="L275" s="8"/>
-      <c r="M275" s="8"/>
-      <c r="N275" s="8"/>
-      <c r="O275" s="8"/>
-      <c r="P275" s="8"/>
-      <c r="Q275" s="8"/>
-    </row>
-    <row r="276" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
-      <c r="H276" s="8"/>
-      <c r="I276" s="8"/>
-      <c r="J276" s="8"/>
-      <c r="K276" s="8"/>
-      <c r="L276" s="8"/>
-      <c r="M276" s="8"/>
-      <c r="N276" s="8"/>
-      <c r="O276" s="8"/>
-      <c r="P276" s="8"/>
-      <c r="Q276" s="8"/>
-    </row>
-    <row r="277" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="8"/>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
-      <c r="H277" s="8"/>
-      <c r="I277" s="8"/>
-      <c r="J277" s="8"/>
-      <c r="K277" s="8"/>
-      <c r="L277" s="8"/>
-      <c r="M277" s="8"/>
-      <c r="N277" s="8"/>
-      <c r="O277" s="8"/>
-      <c r="P277" s="8"/>
-      <c r="Q277" s="8"/>
-    </row>
-    <row r="278" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="8"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
-      <c r="G278" s="8"/>
-      <c r="H278" s="8"/>
-      <c r="I278" s="8"/>
-      <c r="J278" s="8"/>
-      <c r="K278" s="8"/>
-      <c r="L278" s="8"/>
-      <c r="M278" s="8"/>
-      <c r="N278" s="8"/>
-      <c r="O278" s="8"/>
-      <c r="P278" s="8"/>
-      <c r="Q278" s="8"/>
-    </row>
-    <row r="279" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="8"/>
-      <c r="B279" s="8"/>
-      <c r="C279" s="8"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
-      <c r="G279" s="8"/>
-      <c r="H279" s="8"/>
-      <c r="I279" s="8"/>
-      <c r="J279" s="8"/>
-      <c r="K279" s="8"/>
-      <c r="L279" s="8"/>
-      <c r="M279" s="8"/>
-      <c r="N279" s="8"/>
-      <c r="O279" s="8"/>
-      <c r="P279" s="8"/>
-      <c r="Q279" s="8"/>
-    </row>
-    <row r="280" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
-      <c r="G280" s="8"/>
-      <c r="H280" s="8"/>
-      <c r="I280" s="8"/>
-      <c r="J280" s="8"/>
-      <c r="K280" s="8"/>
-      <c r="L280" s="8"/>
-      <c r="M280" s="8"/>
-      <c r="N280" s="8"/>
-      <c r="O280" s="8"/>
-      <c r="P280" s="8"/>
-      <c r="Q280" s="8"/>
-    </row>
-    <row r="281" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
-      <c r="F281" s="8"/>
-      <c r="G281" s="8"/>
-      <c r="H281" s="8"/>
-      <c r="I281" s="8"/>
-      <c r="J281" s="8"/>
-      <c r="K281" s="8"/>
-      <c r="L281" s="8"/>
-      <c r="M281" s="8"/>
-      <c r="N281" s="8"/>
-      <c r="O281" s="8"/>
-      <c r="P281" s="8"/>
-      <c r="Q281" s="8"/>
-    </row>
-    <row r="282" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
-      <c r="G282" s="8"/>
-      <c r="H282" s="8"/>
-      <c r="I282" s="8"/>
-      <c r="J282" s="8"/>
-      <c r="K282" s="8"/>
-      <c r="L282" s="8"/>
-      <c r="M282" s="8"/>
-      <c r="N282" s="8"/>
-      <c r="O282" s="8"/>
-      <c r="P282" s="8"/>
-      <c r="Q282" s="8"/>
-    </row>
-    <row r="283" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
-      <c r="G283" s="8"/>
-      <c r="H283" s="8"/>
-      <c r="I283" s="8"/>
-      <c r="J283" s="8"/>
-      <c r="K283" s="8"/>
-      <c r="L283" s="8"/>
-      <c r="M283" s="8"/>
-      <c r="N283" s="8"/>
-      <c r="O283" s="8"/>
-      <c r="P283" s="8"/>
-      <c r="Q283" s="8"/>
-    </row>
-    <row r="284" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
-      <c r="G284" s="8"/>
-      <c r="H284" s="8"/>
-      <c r="I284" s="8"/>
-      <c r="J284" s="8"/>
-      <c r="K284" s="8"/>
-      <c r="L284" s="8"/>
-      <c r="M284" s="8"/>
-      <c r="N284" s="8"/>
-      <c r="O284" s="8"/>
-      <c r="P284" s="8"/>
-      <c r="Q284" s="8"/>
-    </row>
-    <row r="285" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="8"/>
-      <c r="B285" s="8"/>
-      <c r="C285" s="8"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="8"/>
-      <c r="H285" s="8"/>
-      <c r="I285" s="8"/>
-      <c r="J285" s="8"/>
-      <c r="K285" s="8"/>
-      <c r="L285" s="8"/>
-      <c r="M285" s="8"/>
-      <c r="N285" s="8"/>
-      <c r="O285" s="8"/>
-      <c r="P285" s="8"/>
-      <c r="Q285" s="8"/>
-    </row>
-    <row r="286" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
-      <c r="G286" s="8"/>
-      <c r="H286" s="8"/>
-      <c r="I286" s="8"/>
-      <c r="J286" s="8"/>
-      <c r="K286" s="8"/>
-      <c r="L286" s="8"/>
-      <c r="M286" s="8"/>
-      <c r="N286" s="8"/>
-      <c r="O286" s="8"/>
-      <c r="P286" s="8"/>
-      <c r="Q286" s="8"/>
-    </row>
-    <row r="287" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
-      <c r="G287" s="8"/>
-      <c r="H287" s="8"/>
-      <c r="I287" s="8"/>
-      <c r="J287" s="8"/>
-      <c r="K287" s="8"/>
-      <c r="L287" s="8"/>
-      <c r="M287" s="8"/>
-      <c r="N287" s="8"/>
-      <c r="O287" s="8"/>
-      <c r="P287" s="8"/>
-      <c r="Q287" s="8"/>
-    </row>
-    <row r="288" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
-      <c r="G288" s="8"/>
-      <c r="H288" s="8"/>
-      <c r="I288" s="8"/>
-      <c r="J288" s="8"/>
-      <c r="K288" s="8"/>
-      <c r="L288" s="8"/>
-      <c r="M288" s="8"/>
-      <c r="N288" s="8"/>
-      <c r="O288" s="8"/>
-      <c r="P288" s="8"/>
-      <c r="Q288" s="8"/>
-    </row>
-    <row r="289" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="8"/>
-      <c r="B289" s="8"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
-      <c r="G289" s="8"/>
-      <c r="H289" s="8"/>
-      <c r="I289" s="8"/>
-      <c r="J289" s="8"/>
-      <c r="K289" s="8"/>
-      <c r="L289" s="8"/>
-      <c r="M289" s="8"/>
-      <c r="N289" s="8"/>
-      <c r="O289" s="8"/>
-      <c r="P289" s="8"/>
-      <c r="Q289" s="8"/>
-    </row>
-    <row r="290" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
-      <c r="G290" s="8"/>
-      <c r="H290" s="8"/>
-      <c r="I290" s="8"/>
-      <c r="J290" s="8"/>
-      <c r="K290" s="8"/>
-      <c r="L290" s="8"/>
-      <c r="M290" s="8"/>
-      <c r="N290" s="8"/>
-      <c r="O290" s="8"/>
-      <c r="P290" s="8"/>
-      <c r="Q290" s="8"/>
-    </row>
-    <row r="291" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
-      <c r="G291" s="8"/>
-      <c r="H291" s="8"/>
-      <c r="I291" s="8"/>
-      <c r="J291" s="8"/>
-      <c r="K291" s="8"/>
-      <c r="L291" s="8"/>
-      <c r="M291" s="8"/>
-      <c r="N291" s="8"/>
-      <c r="O291" s="8"/>
-      <c r="P291" s="8"/>
-      <c r="Q291" s="8"/>
-    </row>
-    <row r="292" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
-      <c r="G292" s="8"/>
-      <c r="H292" s="8"/>
-      <c r="I292" s="8"/>
-      <c r="J292" s="8"/>
-      <c r="K292" s="8"/>
-      <c r="L292" s="8"/>
-      <c r="M292" s="8"/>
-      <c r="N292" s="8"/>
-      <c r="O292" s="8"/>
-      <c r="P292" s="8"/>
-      <c r="Q292" s="8"/>
-    </row>
-    <row r="293" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
-      <c r="G293" s="8"/>
-      <c r="H293" s="8"/>
-      <c r="I293" s="8"/>
-      <c r="J293" s="8"/>
-      <c r="K293" s="8"/>
-      <c r="L293" s="8"/>
-      <c r="M293" s="8"/>
-      <c r="N293" s="8"/>
-      <c r="O293" s="8"/>
-      <c r="P293" s="8"/>
-      <c r="Q293" s="8"/>
-    </row>
-    <row r="294" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="8"/>
-      <c r="B294" s="8"/>
-      <c r="C294" s="8"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
-      <c r="G294" s="8"/>
-      <c r="H294" s="8"/>
-      <c r="I294" s="8"/>
-      <c r="J294" s="8"/>
-      <c r="K294" s="8"/>
-      <c r="L294" s="8"/>
-      <c r="M294" s="8"/>
-      <c r="N294" s="8"/>
-      <c r="O294" s="8"/>
-      <c r="P294" s="8"/>
-      <c r="Q294" s="8"/>
-    </row>
-    <row r="295" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="8"/>
-      <c r="B295" s="8"/>
-      <c r="C295" s="8"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
-      <c r="G295" s="8"/>
-      <c r="H295" s="8"/>
-      <c r="I295" s="8"/>
-      <c r="J295" s="8"/>
-      <c r="K295" s="8"/>
-      <c r="L295" s="8"/>
-      <c r="M295" s="8"/>
-      <c r="N295" s="8"/>
-      <c r="O295" s="8"/>
-      <c r="P295" s="8"/>
-      <c r="Q295" s="8"/>
-    </row>
-    <row r="296" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="8"/>
-      <c r="B296" s="8"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
-      <c r="G296" s="8"/>
-      <c r="H296" s="8"/>
-      <c r="I296" s="8"/>
-      <c r="J296" s="8"/>
-      <c r="K296" s="8"/>
-      <c r="L296" s="8"/>
-      <c r="M296" s="8"/>
-      <c r="N296" s="8"/>
-      <c r="O296" s="8"/>
-      <c r="P296" s="8"/>
-      <c r="Q296" s="8"/>
-    </row>
-    <row r="297" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="8"/>
-      <c r="B297" s="8"/>
-      <c r="C297" s="8"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
-      <c r="G297" s="8"/>
-      <c r="H297" s="8"/>
-      <c r="I297" s="8"/>
-      <c r="J297" s="8"/>
-      <c r="K297" s="8"/>
-      <c r="L297" s="8"/>
-      <c r="M297" s="8"/>
-      <c r="N297" s="8"/>
-      <c r="O297" s="8"/>
-      <c r="P297" s="8"/>
-      <c r="Q297" s="8"/>
-    </row>
-    <row r="298" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="8"/>
-      <c r="B298" s="8"/>
-      <c r="C298" s="8"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
-      <c r="G298" s="8"/>
-      <c r="H298" s="8"/>
-      <c r="I298" s="8"/>
-      <c r="J298" s="8"/>
-      <c r="K298" s="8"/>
-      <c r="L298" s="8"/>
-      <c r="M298" s="8"/>
-      <c r="N298" s="8"/>
-      <c r="O298" s="8"/>
-      <c r="P298" s="8"/>
-      <c r="Q298" s="8"/>
-    </row>
-    <row r="299" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="8"/>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-      <c r="G299" s="8"/>
-      <c r="H299" s="8"/>
-      <c r="I299" s="8"/>
-      <c r="J299" s="8"/>
-      <c r="K299" s="8"/>
-      <c r="L299" s="8"/>
-      <c r="M299" s="8"/>
-      <c r="N299" s="8"/>
-      <c r="O299" s="8"/>
-      <c r="P299" s="8"/>
-      <c r="Q299" s="8"/>
-    </row>
-    <row r="300" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="8"/>
-      <c r="B300" s="8"/>
-      <c r="C300" s="8"/>
-      <c r="D300" s="8"/>
-      <c r="E300" s="8"/>
-      <c r="F300" s="8"/>
-      <c r="G300" s="8"/>
-      <c r="H300" s="8"/>
-      <c r="I300" s="8"/>
-      <c r="J300" s="8"/>
-      <c r="K300" s="8"/>
-      <c r="L300" s="8"/>
-      <c r="M300" s="8"/>
-      <c r="N300" s="8"/>
-      <c r="O300" s="8"/>
-      <c r="P300" s="8"/>
-      <c r="Q300" s="8"/>
-    </row>
-    <row r="301" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="8"/>
-      <c r="B301" s="8"/>
-      <c r="C301" s="8"/>
-      <c r="D301" s="8"/>
-      <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
-      <c r="G301" s="8"/>
-      <c r="H301" s="8"/>
-      <c r="I301" s="8"/>
-      <c r="J301" s="8"/>
-      <c r="K301" s="8"/>
-      <c r="L301" s="8"/>
-      <c r="M301" s="8"/>
-      <c r="N301" s="8"/>
-      <c r="O301" s="8"/>
-      <c r="P301" s="8"/>
-      <c r="Q301" s="8"/>
-    </row>
-    <row r="302" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="8"/>
-      <c r="B302" s="8"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
-      <c r="G302" s="8"/>
-      <c r="H302" s="8"/>
-      <c r="I302" s="8"/>
-      <c r="J302" s="8"/>
-      <c r="K302" s="8"/>
-      <c r="L302" s="8"/>
-      <c r="M302" s="8"/>
-      <c r="N302" s="8"/>
-      <c r="O302" s="8"/>
-      <c r="P302" s="8"/>
-      <c r="Q302" s="8"/>
-    </row>
-    <row r="303" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="8"/>
-      <c r="B303" s="8"/>
-      <c r="C303" s="8"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
-      <c r="G303" s="8"/>
-      <c r="H303" s="8"/>
-      <c r="I303" s="8"/>
-      <c r="J303" s="8"/>
-      <c r="K303" s="8"/>
-      <c r="L303" s="8"/>
-      <c r="M303" s="8"/>
-      <c r="N303" s="8"/>
-      <c r="O303" s="8"/>
-      <c r="P303" s="8"/>
-      <c r="Q303" s="8"/>
-    </row>
-    <row r="304" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="8"/>
-      <c r="B304" s="8"/>
-      <c r="C304" s="8"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
-      <c r="G304" s="8"/>
-      <c r="H304" s="8"/>
-      <c r="I304" s="8"/>
-      <c r="J304" s="8"/>
-      <c r="K304" s="8"/>
-      <c r="L304" s="8"/>
-      <c r="M304" s="8"/>
-      <c r="N304" s="8"/>
-      <c r="O304" s="8"/>
-      <c r="P304" s="8"/>
-      <c r="Q304" s="8"/>
-    </row>
-    <row r="305" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="8"/>
-      <c r="B305" s="8"/>
-      <c r="C305" s="8"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
-      <c r="G305" s="8"/>
-      <c r="H305" s="8"/>
-      <c r="I305" s="8"/>
-      <c r="J305" s="8"/>
-      <c r="K305" s="8"/>
-      <c r="L305" s="8"/>
-      <c r="M305" s="8"/>
-      <c r="N305" s="8"/>
-      <c r="O305" s="8"/>
-      <c r="P305" s="8"/>
-      <c r="Q305" s="8"/>
-    </row>
-    <row r="306" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="8"/>
-      <c r="B306" s="8"/>
-      <c r="C306" s="8"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
-      <c r="G306" s="8"/>
-      <c r="H306" s="8"/>
-      <c r="I306" s="8"/>
-      <c r="J306" s="8"/>
-      <c r="K306" s="8"/>
-      <c r="L306" s="8"/>
-      <c r="M306" s="8"/>
-      <c r="N306" s="8"/>
-      <c r="O306" s="8"/>
-      <c r="P306" s="8"/>
-      <c r="Q306" s="8"/>
-    </row>
-    <row r="307" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="8"/>
-      <c r="B307" s="8"/>
-      <c r="C307" s="8"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
-      <c r="G307" s="8"/>
-      <c r="H307" s="8"/>
-      <c r="I307" s="8"/>
-      <c r="J307" s="8"/>
-      <c r="K307" s="8"/>
-      <c r="L307" s="8"/>
-      <c r="M307" s="8"/>
-      <c r="N307" s="8"/>
-      <c r="O307" s="8"/>
-      <c r="P307" s="8"/>
-      <c r="Q307" s="8"/>
-    </row>
-    <row r="308" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="8"/>
-      <c r="B308" s="8"/>
-      <c r="C308" s="8"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
-      <c r="G308" s="8"/>
-      <c r="H308" s="8"/>
-      <c r="I308" s="8"/>
-      <c r="J308" s="8"/>
-      <c r="K308" s="8"/>
-      <c r="L308" s="8"/>
-      <c r="M308" s="8"/>
-      <c r="N308" s="8"/>
-      <c r="O308" s="8"/>
-      <c r="P308" s="8"/>
-      <c r="Q308" s="8"/>
-    </row>
-    <row r="309" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="8"/>
-      <c r="B309" s="8"/>
-      <c r="C309" s="8"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="8"/>
-      <c r="H309" s="8"/>
-      <c r="I309" s="8"/>
-      <c r="J309" s="8"/>
-      <c r="K309" s="8"/>
-      <c r="L309" s="8"/>
-      <c r="M309" s="8"/>
-      <c r="N309" s="8"/>
-      <c r="O309" s="8"/>
-      <c r="P309" s="8"/>
-      <c r="Q309" s="8"/>
-    </row>
-    <row r="310" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="8"/>
-      <c r="B310" s="8"/>
-      <c r="C310" s="8"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="8"/>
-      <c r="H310" s="8"/>
-      <c r="I310" s="8"/>
-      <c r="J310" s="8"/>
-      <c r="K310" s="8"/>
-      <c r="L310" s="8"/>
-      <c r="M310" s="8"/>
-      <c r="N310" s="8"/>
-      <c r="O310" s="8"/>
-      <c r="P310" s="8"/>
-      <c r="Q310" s="8"/>
-    </row>
-    <row r="311" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="8"/>
-      <c r="B311" s="8"/>
-      <c r="C311" s="8"/>
-      <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
-      <c r="G311" s="8"/>
-      <c r="H311" s="8"/>
-      <c r="I311" s="8"/>
-      <c r="J311" s="8"/>
-      <c r="K311" s="8"/>
-      <c r="L311" s="8"/>
-      <c r="M311" s="8"/>
-      <c r="N311" s="8"/>
-      <c r="O311" s="8"/>
-      <c r="P311" s="8"/>
-      <c r="Q311" s="8"/>
-    </row>
-    <row r="312" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="8"/>
-      <c r="B312" s="8"/>
-      <c r="C312" s="8"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
-      <c r="F312" s="8"/>
-      <c r="G312" s="8"/>
-      <c r="H312" s="8"/>
-      <c r="I312" s="8"/>
-      <c r="J312" s="8"/>
-      <c r="K312" s="8"/>
-      <c r="L312" s="8"/>
-      <c r="M312" s="8"/>
-      <c r="N312" s="8"/>
-      <c r="O312" s="8"/>
-      <c r="P312" s="8"/>
-      <c r="Q312" s="8"/>
-    </row>
-    <row r="313" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="8"/>
-      <c r="B313" s="8"/>
-      <c r="C313" s="8"/>
-      <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
-      <c r="G313" s="8"/>
-      <c r="H313" s="8"/>
-      <c r="I313" s="8"/>
-      <c r="J313" s="8"/>
-      <c r="K313" s="8"/>
-      <c r="L313" s="8"/>
-      <c r="M313" s="8"/>
-      <c r="N313" s="8"/>
-      <c r="O313" s="8"/>
-      <c r="P313" s="8"/>
-      <c r="Q313" s="8"/>
-    </row>
-    <row r="314" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="8"/>
-      <c r="B314" s="8"/>
-      <c r="C314" s="8"/>
-      <c r="D314" s="8"/>
-      <c r="E314" s="8"/>
-      <c r="F314" s="8"/>
-      <c r="G314" s="8"/>
-      <c r="H314" s="8"/>
-      <c r="I314" s="8"/>
-      <c r="J314" s="8"/>
-      <c r="K314" s="8"/>
-      <c r="L314" s="8"/>
-      <c r="M314" s="8"/>
-      <c r="N314" s="8"/>
-      <c r="O314" s="8"/>
-      <c r="P314" s="8"/>
-      <c r="Q314" s="8"/>
-    </row>
-    <row r="315" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="8"/>
-      <c r="B315" s="8"/>
-      <c r="C315" s="8"/>
-      <c r="D315" s="8"/>
-      <c r="E315" s="8"/>
-      <c r="F315" s="8"/>
-      <c r="G315" s="8"/>
-      <c r="H315" s="8"/>
-      <c r="I315" s="8"/>
-      <c r="J315" s="8"/>
-      <c r="K315" s="8"/>
-      <c r="L315" s="8"/>
-      <c r="M315" s="8"/>
-      <c r="N315" s="8"/>
-      <c r="O315" s="8"/>
-      <c r="P315" s="8"/>
-      <c r="Q315" s="8"/>
-    </row>
-    <row r="316" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="8"/>
-      <c r="B316" s="8"/>
-      <c r="C316" s="8"/>
-      <c r="D316" s="8"/>
-      <c r="E316" s="8"/>
-      <c r="F316" s="8"/>
-      <c r="G316" s="8"/>
-      <c r="H316" s="8"/>
-      <c r="I316" s="8"/>
-      <c r="J316" s="8"/>
-      <c r="K316" s="8"/>
-      <c r="L316" s="8"/>
-      <c r="M316" s="8"/>
-      <c r="N316" s="8"/>
-      <c r="O316" s="8"/>
-      <c r="P316" s="8"/>
-      <c r="Q316" s="8"/>
-    </row>
-    <row r="317" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="8"/>
-      <c r="B317" s="8"/>
-      <c r="C317" s="8"/>
-      <c r="D317" s="8"/>
-      <c r="E317" s="8"/>
-      <c r="F317" s="8"/>
-      <c r="G317" s="8"/>
-      <c r="H317" s="8"/>
-      <c r="I317" s="8"/>
-      <c r="J317" s="8"/>
-      <c r="K317" s="8"/>
-      <c r="L317" s="8"/>
-      <c r="M317" s="8"/>
-      <c r="N317" s="8"/>
-      <c r="O317" s="8"/>
-      <c r="P317" s="8"/>
-      <c r="Q317" s="8"/>
-    </row>
-    <row r="318" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="8"/>
-      <c r="B318" s="8"/>
-      <c r="C318" s="8"/>
-      <c r="D318" s="8"/>
-      <c r="E318" s="8"/>
-      <c r="F318" s="8"/>
-      <c r="G318" s="8"/>
-      <c r="H318" s="8"/>
-      <c r="I318" s="8"/>
-      <c r="J318" s="8"/>
-      <c r="K318" s="8"/>
-      <c r="L318" s="8"/>
-      <c r="M318" s="8"/>
-      <c r="N318" s="8"/>
-      <c r="O318" s="8"/>
-      <c r="P318" s="8"/>
-      <c r="Q318" s="8"/>
-    </row>
-    <row r="319" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="8"/>
-      <c r="B319" s="8"/>
-      <c r="C319" s="8"/>
-      <c r="D319" s="8"/>
-      <c r="E319" s="8"/>
-      <c r="F319" s="8"/>
-      <c r="G319" s="8"/>
-      <c r="H319" s="8"/>
-      <c r="I319" s="8"/>
-      <c r="J319" s="8"/>
-      <c r="K319" s="8"/>
-      <c r="L319" s="8"/>
-      <c r="M319" s="8"/>
-      <c r="N319" s="8"/>
-      <c r="O319" s="8"/>
-      <c r="P319" s="8"/>
-      <c r="Q319" s="8"/>
-    </row>
-    <row r="320" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="8"/>
-      <c r="B320" s="8"/>
-      <c r="C320" s="8"/>
-      <c r="D320" s="8"/>
-      <c r="E320" s="8"/>
-      <c r="F320" s="8"/>
-      <c r="G320" s="8"/>
-      <c r="H320" s="8"/>
-      <c r="I320" s="8"/>
-      <c r="J320" s="8"/>
-      <c r="K320" s="8"/>
-      <c r="L320" s="8"/>
-      <c r="M320" s="8"/>
-      <c r="N320" s="8"/>
-      <c r="O320" s="8"/>
-      <c r="P320" s="8"/>
-      <c r="Q320" s="8"/>
-    </row>
-    <row r="321" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="8"/>
-      <c r="B321" s="8"/>
-      <c r="C321" s="8"/>
-      <c r="D321" s="8"/>
-      <c r="E321" s="8"/>
-      <c r="F321" s="8"/>
-      <c r="G321" s="8"/>
-      <c r="H321" s="8"/>
-      <c r="I321" s="8"/>
-      <c r="J321" s="8"/>
-      <c r="K321" s="8"/>
-      <c r="L321" s="8"/>
-      <c r="M321" s="8"/>
-      <c r="N321" s="8"/>
-      <c r="O321" s="8"/>
-      <c r="P321" s="8"/>
-      <c r="Q321" s="8"/>
-    </row>
-    <row r="322" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="8"/>
-      <c r="B322" s="8"/>
-      <c r="C322" s="8"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="8"/>
-      <c r="F322" s="8"/>
-      <c r="G322" s="8"/>
-      <c r="H322" s="8"/>
-      <c r="I322" s="8"/>
-      <c r="J322" s="8"/>
-      <c r="K322" s="8"/>
-      <c r="L322" s="8"/>
-      <c r="M322" s="8"/>
-      <c r="N322" s="8"/>
-      <c r="O322" s="8"/>
-      <c r="P322" s="8"/>
-      <c r="Q322" s="8"/>
-    </row>
-    <row r="323" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="8"/>
-      <c r="B323" s="8"/>
-      <c r="C323" s="8"/>
-      <c r="D323" s="8"/>
-      <c r="E323" s="8"/>
-      <c r="F323" s="8"/>
-      <c r="G323" s="8"/>
-      <c r="H323" s="8"/>
-      <c r="I323" s="8"/>
-      <c r="J323" s="8"/>
-      <c r="K323" s="8"/>
-      <c r="L323" s="8"/>
-      <c r="M323" s="8"/>
-      <c r="N323" s="8"/>
-      <c r="O323" s="8"/>
-      <c r="P323" s="8"/>
-      <c r="Q323" s="8"/>
-    </row>
-    <row r="324" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="8"/>
-      <c r="B324" s="8"/>
-      <c r="C324" s="8"/>
-      <c r="D324" s="8"/>
-      <c r="E324" s="8"/>
-      <c r="F324" s="8"/>
-      <c r="G324" s="8"/>
-      <c r="H324" s="8"/>
-      <c r="I324" s="8"/>
-      <c r="J324" s="8"/>
-      <c r="K324" s="8"/>
-      <c r="L324" s="8"/>
-      <c r="M324" s="8"/>
-      <c r="N324" s="8"/>
-      <c r="O324" s="8"/>
-      <c r="P324" s="8"/>
-      <c r="Q324" s="8"/>
-    </row>
-    <row r="325" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="8"/>
-      <c r="B325" s="8"/>
-      <c r="C325" s="8"/>
-      <c r="D325" s="8"/>
-      <c r="E325" s="8"/>
-      <c r="F325" s="8"/>
-      <c r="G325" s="8"/>
-      <c r="H325" s="8"/>
-      <c r="I325" s="8"/>
-      <c r="J325" s="8"/>
-      <c r="K325" s="8"/>
-      <c r="L325" s="8"/>
-      <c r="M325" s="8"/>
-      <c r="N325" s="8"/>
-      <c r="O325" s="8"/>
-      <c r="P325" s="8"/>
-      <c r="Q325" s="8"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:Q161" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12439,21 +9322,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9445D771-966C-426B-A758-A2361A77EDCD}">
   <dimension ref="A1:Q161"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -12506,7 +9389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -12559,7 +9442,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -12612,7 +9495,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -12665,7 +9548,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -12718,7 +9601,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -12771,7 +9654,7 @@
         <v>417.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -12824,7 +9707,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -12877,7 +9760,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -12930,7 +9813,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -12983,7 +9866,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -13036,7 +9919,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -13089,7 +9972,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -13142,7 +10025,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -13195,7 +10078,7 @@
         <v>452.5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -13248,7 +10131,7 @@
         <v>397.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -13301,7 +10184,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -13354,7 +10237,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -13407,7 +10290,7 @@
         <v>342.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -13460,7 +10343,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -13513,7 +10396,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -13566,7 +10449,7 @@
         <v>442.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -13619,7 +10502,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -13672,7 +10555,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -13725,7 +10608,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -13778,7 +10661,7 @@
         <v>377.5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -13831,7 +10714,7 @@
         <v>362.5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -13884,7 +10767,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -13937,7 +10820,7 @@
         <v>397.5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -13990,7 +10873,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -14043,7 +10926,7 @@
         <v>542.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -14096,7 +10979,7 @@
         <v>477.5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -14149,7 +11032,7 @@
         <v>432.5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -14202,7 +11085,7 @@
         <v>392.5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -14255,7 +11138,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -14308,7 +11191,7 @@
         <v>277.5</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -14361,7 +11244,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -14414,7 +11297,7 @@
         <v>377.5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -14467,7 +11350,7 @@
         <v>447.5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -14520,7 +11403,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -14573,7 +11456,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -14626,7 +11509,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -14679,7 +11562,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -14732,7 +11615,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -14785,7 +11668,7 @@
         <v>347.5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -14838,7 +11721,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -14891,7 +11774,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -14944,7 +11827,7 @@
         <v>417.5</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -14997,7 +11880,7 @@
         <v>377.5</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -15050,7 +11933,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -15103,7 +11986,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -15156,7 +12039,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -15209,7 +12092,7 @@
         <v>347.5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -15262,7 +12145,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -15315,7 +12198,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -15368,7 +12251,7 @@
         <v>417.5</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
@@ -15421,7 +12304,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -15474,7 +12357,7 @@
         <v>342.5</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -15527,7 +12410,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -15580,7 +12463,7 @@
         <v>327.5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -15633,7 +12516,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -15686,7 +12569,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -15739,7 +12622,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -15792,7 +12675,7 @@
         <v>437.5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -15845,7 +12728,7 @@
         <v>397.5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -15898,7 +12781,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -15963,7 +12846,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -16028,7 +12911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
@@ -16083,7 +12966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -16138,7 +13021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -16193,7 +13076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
@@ -16248,7 +13131,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
@@ -16313,7 +13196,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
@@ -16378,7 +13261,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -16431,7 +13314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -16484,7 +13367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -16537,7 +13420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
@@ -16590,7 +13473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -16643,7 +13526,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>10</v>
       </c>
@@ -16696,7 +13579,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
@@ -16749,7 +13632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
@@ -16802,7 +13685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
@@ -16855,7 +13738,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -16908,7 +13791,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -16961,7 +13844,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
@@ -17014,7 +13897,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -17067,7 +13950,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -17120,7 +14003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -17173,7 +14056,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
@@ -17226,7 +14109,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
@@ -17279,7 +14162,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -17332,7 +14215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
@@ -17385,7 +14268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>8</v>
       </c>
@@ -17438,7 +14321,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -17491,7 +14374,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -17544,7 +14427,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>11</v>
       </c>
@@ -17597,7 +14480,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>12</v>
       </c>
@@ -17650,7 +14533,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
@@ -17703,7 +14586,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -17756,7 +14639,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
@@ -17809,7 +14692,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>8</v>
       </c>
@@ -17862,7 +14745,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -17915,7 +14798,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>10</v>
       </c>
@@ -17968,7 +14851,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
@@ -18021,7 +14904,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>12</v>
       </c>
@@ -18074,7 +14957,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>5</v>
       </c>
@@ -18127,7 +15010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -18180,7 +15063,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
@@ -18233,7 +15116,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>8</v>
       </c>
@@ -18286,7 +15169,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -18339,7 +15222,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>10</v>
       </c>
@@ -18392,7 +15275,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -18445,7 +15328,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>12</v>
       </c>
@@ -18498,7 +15381,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
@@ -18551,7 +15434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -18604,7 +15487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -18657,7 +15540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
@@ -18710,7 +15593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
@@ -18763,7 +15646,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>10</v>
       </c>
@@ -18816,7 +15699,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
@@ -18869,7 +15752,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>12</v>
       </c>
@@ -18922,7 +15805,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
@@ -18975,7 +15858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>6</v>
       </c>
@@ -19028,7 +15911,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
@@ -19081,7 +15964,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>8</v>
       </c>
@@ -19134,7 +16017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>9</v>
       </c>
@@ -19187,7 +16070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>10</v>
       </c>
@@ -19240,7 +16123,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
@@ -19293,7 +16176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -19346,7 +16229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>5</v>
       </c>
@@ -19399,7 +16282,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -19452,7 +16335,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
@@ -19505,7 +16388,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>8</v>
       </c>
@@ -19558,7 +16441,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>9</v>
       </c>
@@ -19611,7 +16494,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>10</v>
       </c>
@@ -19664,7 +16547,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>11</v>
       </c>
@@ -19717,7 +16600,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
@@ -19770,7 +16653,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>5</v>
       </c>
@@ -19823,7 +16706,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>6</v>
       </c>
@@ -19876,7 +16759,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>7</v>
       </c>
@@ -19929,7 +16812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>8</v>
       </c>
@@ -19982,7 +16865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>9</v>
       </c>
@@ -20035,7 +16918,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>10</v>
       </c>
@@ -20088,7 +16971,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>11</v>
       </c>
@@ -20141,7 +17024,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>12</v>
       </c>
@@ -20194,7 +17077,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
@@ -20247,7 +17130,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
@@ -20300,7 +17183,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>7</v>
       </c>
@@ -20353,7 +17236,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>8</v>
       </c>
@@ -20406,7 +17289,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -20459,7 +17342,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>10</v>
       </c>
@@ -20512,7 +17395,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>11</v>
       </c>
@@ -20565,7 +17448,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>12</v>
       </c>
@@ -20618,7 +17501,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>5</v>
       </c>
@@ -20671,7 +17554,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -20724,7 +17607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>7</v>
       </c>
@@ -20777,7 +17660,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>8</v>
       </c>
@@ -20830,7 +17713,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>9</v>
       </c>
@@ -20883,7 +17766,7 @@
         <v>202.5</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>10</v>
       </c>
@@ -20936,7 +17819,7 @@
         <v>177.5</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>11</v>
       </c>
@@ -20989,7 +17872,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>12</v>
       </c>
@@ -21043,6 +17926,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q161" xr:uid="{9445D771-966C-426B-A758-A2361A77EDCD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>